--- a/biology/Zoologie/Cleonis/Cleonis.xlsx
+++ b/biology/Zoologie/Cleonis/Cleonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleonus, Eratus, Geomorus, Ophis, Xerobia
 Cleonis est un genre d'insectes coléoptères de la famille des Curculionidae.
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Cleonis est créé en 1821 par l'entomologiste français Auguste Dejean (1780-1845)[1],[2].
-Synonymes
-Selon IRMNG en 2023, le nombre de synonymes est de cinq[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cleonis est créé en 1821 par l'entomologiste français Auguste Dejean (1780-1845),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cleonis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cleonis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon IRMNG en 2023, le nombre de synonymes est de cinq :
 Cleonus Schoenherr, 1826
 Eratus Dejean, 1821
 Geomorus Schoenherr, 1823
@@ -525,37 +574,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cleonis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cleonis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cleonis est un genre de charançons cylindriques de la famille des coléoptères Curculionidae. Il y a au moins 123 espèces décrites dans Cleonis[3],[4],[5],[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -577,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cleonis est un genre de charançons cylindriques de la famille des coléoptères Curculionidae. Il y a au moins 123 espèces décrites dans Cleonis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cleonis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cleonis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cleonis albicans Sturm, 1826 c
@@ -701,44 +754,80 @@
 Cleonis tricarinata Fischer, 1823 c
 Cleonis vittata Zoubkoff, 1829 c
 Cleonis wickhami O'Brien &amp; Wibmer, 1982 c
-Sources : i = ITIS[3], c = Catalogue of Life[4], g = GBIF[5],[7],[8]
+Sources : i = ITIS, c = Catalogue of Life, g = GBIF
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cleonis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cleonis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, deux espèces sont référencées sous le protonyme Cleonus[9] :
-†Cleonus exterraneus S. H. Scudder, 1893[10]
-†Cleonus pygmaeus Oustalet, 1874[11],[9].
-Nomen dubium
-L'espèce Cleonus foersteri, nommé deux fois est un nomen dubium :
-†Cleonus foesteri Scudder, 1893 est nomen dubium de la tribu Cleonini (Schonherr, 1826)[12] ;
-†Cleonus foersteri Théobald, 1937 est un nomen dubium de la famille Curculionidae Latreille, 1802[13].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, deux espèces sont référencées sous le protonyme Cleonus :
+†Cleonus exterraneus S. H. Scudder, 1893
+†Cleonus pygmaeus Oustalet, 1874,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cleonis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cleonis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nomen dubium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'espèce Cleonus foersteri, nommé deux fois est un nomen dubium :
+†Cleonus foesteri Scudder, 1893 est nomen dubium de la tribu Cleonini (Schonherr, 1826) ;
+†Cleonus foersteri Théobald, 1937 est un nomen dubium de la famille Curculionidae Latreille, 1802.</t>
         </is>
       </c>
     </row>
